--- a/Resources/滑动窗口.xlsx
+++ b/Resources/滑动窗口.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>尽快发送区域</t>
     <rPh sb="0" eb="1">
@@ -37,6 +37,65 @@
       <t>fa's</t>
     </rPh>
     <rPh sb="4" eb="5">
+      <t>qu'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已回复</t>
+    <rPh sb="0" eb="1">
+      <t>yi'j</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hui'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待回复</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽快发送区域</t>
+    <rPh sb="0" eb="1">
+      <t>jin'kuai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa's</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qu'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发送区域</t>
+    <rPh sb="0" eb="1">
+      <t>wei'lai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fa's</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qu'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发送区域</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fa's</t>
+    </rPh>
+    <rPh sb="3" eb="4">
       <t>qu'yu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +140,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -121,7 +198,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -401,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:U20"/>
+  <dimension ref="A6:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +590,24 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
@@ -531,31 +637,96 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2">
+        <v>11</v>
+      </c>
+      <c r="M13" s="2">
+        <v>12</v>
+      </c>
+      <c r="N13" s="2">
+        <v>13</v>
+      </c>
+      <c r="O13" s="2">
+        <v>14</v>
+      </c>
+      <c r="P13" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>16</v>
+      </c>
+      <c r="R13" s="2">
+        <v>17</v>
+      </c>
+      <c r="S13" s="2">
+        <v>18</v>
+      </c>
+      <c r="T13" s="2">
+        <v>19</v>
+      </c>
+      <c r="U13" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
@@ -566,7 +737,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -575,7 +746,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -584,7 +755,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -593,18 +764,104 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2">
+        <v>8</v>
+      </c>
+      <c r="J20" s="2">
+        <v>9</v>
+      </c>
+      <c r="K20" s="2">
+        <v>10</v>
+      </c>
+      <c r="L20" s="2">
+        <v>11</v>
+      </c>
+      <c r="M20" s="2">
+        <v>12</v>
+      </c>
+      <c r="N20" s="2">
+        <v>13</v>
+      </c>
+      <c r="O20" s="2">
+        <v>14</v>
+      </c>
+      <c r="P20" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>16</v>
+      </c>
+      <c r="R20" s="2">
+        <v>17</v>
+      </c>
+      <c r="S20" s="2">
+        <v>18</v>
+      </c>
+      <c r="T20" s="2">
+        <v>19</v>
+      </c>
+      <c r="U20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:F8"/>
+  <mergeCells count="8">
+    <mergeCell ref="I15:U15"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:U22"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
